--- a/pdfs/Battleship Project/Battleship GANTT Chart.xlsx
+++ b/pdfs/Battleship Project/Battleship GANTT Chart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">Battleship Project</t>
   </si>
@@ -101,6 +101,30 @@
     <t xml:space="preserve">AI: Targeting</t>
   </si>
   <si>
+    <t xml:space="preserve">Ali, Aiden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">%</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Hit Detection</t>
   </si>
   <si>
@@ -129,9 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">Change Management Records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolution</t>
   </si>
   <si>
     <t xml:space="preserve">Closing Reflection Phase</t>
@@ -249,7 +270,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +353,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFD6E3BC"/>
       </patternFill>
     </fill>
     <fill>
@@ -499,7 +514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,7 +651,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,10 +671,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -696,55 +707,67 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,23 +779,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,7 +815,7 @@
       <rgbColor rgb="FFEAF1DD"/>
       <rgbColor rgb="FFDAEEF3"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFE5DFEC"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB8CCE4"/>
       <rgbColor rgb="FF000080"/>
@@ -830,7 +837,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FFB6D7A8"/>
+      <rgbColor rgb="FFE5DFEC"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF8064A2"/>
@@ -858,7 +865,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,7 +899,7 @@
       </c>
       <c r="E2" s="5" t="n">
         <f aca="true">TODAY()</f>
-        <v>44574</v>
+        <v>44585</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1482,7 +1489,7 @@
       <c r="B12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="35" t="n">
@@ -1529,13 +1536,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="20" t="e">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>#REF!</v>
@@ -1571,19 +1578,19 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="47" t="n">
+      <c r="D14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F14" s="47" t="n">
+      <c r="F14" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G14" s="20" t="e">
@@ -1600,16 +1607,16 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="23"/>
@@ -1621,19 +1628,19 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="47" t="n">
+      <c r="C15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F15" s="47" t="n">
+      <c r="F15" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G15" s="20" t="e">
@@ -1650,16 +1657,16 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="22"/>
       <c r="AD15" s="23"/>
@@ -1671,19 +1678,19 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="47" t="n">
+      <c r="E16" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F16" s="47" t="n">
+      <c r="F16" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G16" s="20" t="e">
@@ -1700,16 +1707,16 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
       <c r="AD16" s="23"/>
@@ -1721,19 +1728,19 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="47" t="n">
+      <c r="B17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F17" s="47" t="n">
+      <c r="F17" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G17" s="20" t="e">
@@ -1750,16 +1757,16 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
       <c r="AD17" s="23"/>
@@ -1771,19 +1778,19 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="47" t="n">
+      <c r="B18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F18" s="47" t="n">
+      <c r="F18" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G18" s="20"/>
@@ -1797,16 +1804,16 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
       <c r="AD18" s="23"/>
@@ -1818,19 +1825,19 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="47" t="n">
+      <c r="D19" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="46" t="n">
         <v>44574</v>
       </c>
-      <c r="F19" s="47" t="n">
+      <c r="F19" s="46" t="n">
         <v>44582</v>
       </c>
       <c r="G19" s="20" t="e">
@@ -1847,16 +1854,16 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
       <c r="AD19" s="23"/>
@@ -1868,13 +1875,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="20" t="e">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>#REF!</v>
@@ -1910,19 +1917,19 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="56" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="57" t="n">
+      <c r="D21" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="56" t="n">
         <v>44567</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="56" t="n">
         <v>44582</v>
       </c>
       <c r="G21" s="20" t="e">
@@ -1932,23 +1939,23 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="23"/>
@@ -1960,19 +1967,19 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="B22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="D22" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="56" t="n">
         <v>44574</v>
       </c>
-      <c r="F22" s="57" t="n">
+      <c r="F22" s="56" t="n">
         <v>44582</v>
       </c>
       <c r="G22" s="20"/>
@@ -1986,16 +1993,16 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
       <c r="AD22" s="23"/>
@@ -2007,21 +2014,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="57" t="n">
-        <v>44574</v>
-      </c>
-      <c r="F23" s="57" t="n">
-        <v>44582</v>
-      </c>
+      <c r="B23" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="20" t="e">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>#REF!</v>
@@ -2029,25 +2028,25 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
@@ -2057,13 +2056,21 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="65" t="n">
+        <v>44583</v>
+      </c>
+      <c r="F24" s="65" t="n">
+        <v>44585</v>
+      </c>
       <c r="G24" s="20" t="e">
         <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>#REF!</v>
@@ -2071,25 +2078,25 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
@@ -2099,19 +2106,19 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="66" t="n">
+      <c r="B25" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="67" t="n">
+      <c r="E25" s="65" t="n">
         <v>44583</v>
       </c>
-      <c r="F25" s="67" t="n">
+      <c r="F25" s="65" t="n">
         <v>44585</v>
       </c>
       <c r="G25" s="20" t="e">
@@ -2137,9 +2144,9 @@
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
       <c r="AD25" s="23"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
@@ -2149,19 +2156,19 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="66" t="n">
+      <c r="B26" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="67" t="n">
+      <c r="E26" s="65" t="n">
         <v>44583</v>
       </c>
-      <c r="F26" s="67" t="n">
+      <c r="F26" s="65" t="n">
         <v>44585</v>
       </c>
       <c r="G26" s="20" t="e">
@@ -2187,9 +2194,9 @@
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
@@ -2199,19 +2206,19 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="66" t="n">
+      <c r="B27" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="67" t="n">
+      <c r="E27" s="65" t="n">
         <v>44583</v>
       </c>
-      <c r="F27" s="67" t="n">
+      <c r="F27" s="65" t="n">
         <v>44585</v>
       </c>
       <c r="G27" s="20" t="e">
@@ -2237,9 +2244,9 @@
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
       <c r="AD27" s="23"/>
       <c r="AE27" s="23"/>
       <c r="AF27" s="23"/>
@@ -2249,25 +2256,22 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="66" t="n">
+      <c r="B28" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="67" t="n">
+      <c r="E28" s="65" t="n">
         <v>44583</v>
       </c>
-      <c r="F28" s="67" t="n">
+      <c r="F28" s="65" t="n">
         <v>44585</v>
       </c>
-      <c r="G28" s="20" t="e">
-        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G28" s="20"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -2287,9 +2291,9 @@
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
@@ -2299,22 +2303,25 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
-      <c r="B29" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="66" t="n">
+      <c r="B29" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="67" t="n">
+      <c r="E29" s="65" t="n">
         <v>44583</v>
       </c>
-      <c r="F29" s="67" t="n">
+      <c r="F29" s="65" t="n">
         <v>44585</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="e">
+        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>#REF!</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -2334,9 +2341,9 @@
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
       <c r="AD29" s="23"/>
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
@@ -2344,56 +2351,7 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="67" t="n">
-        <v>44583</v>
-      </c>
-      <c r="F30" s="67" t="n">
-        <v>44585</v>
-      </c>
-      <c r="G30" s="20" t="e">
-        <f aca="false">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
